--- a/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
+++ b/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
@@ -69,9 +69,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>15509</t>
-  </si>
-  <si>
     <t>57501</t>
   </si>
   <si>
@@ -81,10 +78,13 @@
     <t>139</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>1,001-5,000</t>
+  </si>
+  <si>
+    <t>10001+</t>
+  </si>
+  <si>
+    <t>15515</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -155,42 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,13 +528,13 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -582,13 +546,13 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -600,13 +564,13 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -618,17 +582,13 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
+++ b/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Deore\IdeaProjects\ResearchAnalyst\src\test\resources\linkedInVisuals\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Raymond James</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Chrome</t>
   </si>
   <si>
+    <t>15509</t>
+  </si>
+  <si>
     <t>57501</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>139</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>1,001-5,000</t>
   </si>
   <si>
@@ -85,12 +91,22 @@
   </si>
   <si>
     <t>15515</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>57474</t>
+  </si>
+  <si>
+    <t>86317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -155,6 +171,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,11 +543,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,19 +578,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,13 +628,13 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -546,13 +646,13 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -564,13 +664,13 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="D5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -582,13 +682,17 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
+++ b/target/test-classes/linkedInVisuals/Linkedin Visuals_Omkar.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Raymond James</t>
   </si>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -206,6 +206,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -628,10 +652,10 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="5"/>
@@ -646,10 +670,10 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="8"/>
@@ -664,10 +688,10 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6"/>
@@ -682,10 +706,10 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="7"/>
